--- a/dash_app/cleaned_tfl_dataset_EDIT.xlsx
+++ b/dash_app/cleaned_tfl_dataset_EDIT.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:K1037"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
